--- a/tech/android/Android.xlsx
+++ b/tech/android/Android.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/project/YingVickyCao.github.io/tech/android/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/tech/android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D6EFC-EF8C-D44D-B37B-313B0C208EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DF411-1EF2-164A-BA95-86B6B76FA4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19780" yWindow="-27080" windowWidth="67560" windowHeight="27080" activeTab="22" xr2:uid="{28B047E5-106B-734D-9946-941985B8FCF0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" firstSheet="11" activeTab="22" xr2:uid="{28B047E5-106B-734D-9946-941985B8FCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="DB_Room_AnnotationList" sheetId="21" r:id="rId20"/>
     <sheet name="App_links" sheetId="22" r:id="rId21"/>
     <sheet name="Annotation" sheetId="24" r:id="rId22"/>
-    <sheet name="Sheet3" sheetId="25" r:id="rId23"/>
+    <sheet name="android library" sheetId="25" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">CustomView!$A$1:$BU$281</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="570">
   <si>
     <t>角</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2338,79 +2338,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size (bits)</t>
-  </si>
-  <si>
-    <t>Min value</t>
-  </si>
-  <si>
-    <t>Max value</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF19191C"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF19191C"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t> - 1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF19191C"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF19191C"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t> - 1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UByte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UShort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ULong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>org.jetbrains.kotlin:kotlin-stdlib</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Kotlin support</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2437,21 +2377,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2475,7 +2415,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2483,7 +2423,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2491,7 +2431,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2499,7 +2439,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2507,7 +2447,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2515,7 +2455,7 @@
     <font>
       <sz val="6"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2523,7 +2463,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2531,21 +2471,21 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2554,7 +2494,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2563,7 +2503,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2571,7 +2511,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2579,7 +2519,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2588,28 +2528,28 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2617,7 +2557,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2625,7 +2565,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2633,21 +2573,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2655,7 +2595,7 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2664,7 +2604,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2673,7 +2613,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2695,21 +2635,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2717,7 +2657,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2766,39 +2706,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF19191C"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF19191C"/>
       <name val="Var(--rs-font-family-mono,&quot;JetB"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF19191C"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF19191C"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF19191C"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF19191C"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4026,7 +3936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4531,7 +4441,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4542,12 +4452,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -4561,14 +4465,14 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -13547,7 +13451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:9" ht="19">
       <c r="C4" s="182" t="s">
         <v>174</v>
       </c>
@@ -13585,7 +13489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:9" ht="19">
       <c r="G13" s="182" t="s">
         <v>174</v>
       </c>
@@ -13686,7 +13590,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="19">
       <c r="B3" s="188" t="s">
         <v>225</v>
       </c>
@@ -13915,7 +13819,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18">
+    <row r="18" spans="2:7" ht="19">
       <c r="B18" s="188" t="s">
         <v>225</v>
       </c>
@@ -14057,7 +13961,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="18">
+    <row r="27" spans="2:7" ht="19">
       <c r="B27" s="188" t="s">
         <v>225</v>
       </c>
@@ -14286,7 +14190,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18">
+    <row r="42" spans="2:7" ht="19">
       <c r="B42" s="188" t="s">
         <v>225</v>
       </c>
@@ -15629,14 +15533,14 @@
       <c r="B2" s="251" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="269" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="265" t="s">
+      <c r="E2" s="269"/>
+      <c r="F2" s="270" t="s">
         <v>473</v>
       </c>
-      <c r="G2" s="265"/>
+      <c r="G2" s="270"/>
       <c r="H2" s="251" t="s">
         <v>478</v>
       </c>
@@ -16494,24 +16398,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="264" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="267"/>
+      <c r="B2" s="265"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="267"/>
+      <c r="B3" s="265"/>
     </row>
     <row r="5" spans="1:4" ht="38">
       <c r="B5" t="s">
         <v>552</v>
       </c>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="266" t="s">
         <v>564</v>
       </c>
       <c r="D5" t="s">
@@ -16525,7 +16429,7 @@
       <c r="C6" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="269" t="s">
+      <c r="D6" s="267" t="s">
         <v>562</v>
       </c>
     </row>
@@ -16552,7 +16456,7 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="265" t="s">
         <v>544</v>
       </c>
       <c r="C17" t="s">
@@ -16563,7 +16467,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="267" t="s">
+      <c r="B18" s="265" t="s">
         <v>540</v>
       </c>
       <c r="C18" t="s">
@@ -16608,118 +16512,69 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE55F732-FA1B-D242-804E-61E86762F3BC}">
-  <dimension ref="C5:F27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="20">
-      <c r="C5" s="271" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>565</v>
       </c>
-      <c r="D5" s="271" t="s">
-        <v>566</v>
-      </c>
-      <c r="E5" s="271" t="s">
+      <c r="B2" t="s">
         <v>567</v>
       </c>
-      <c r="F5" s="271" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="20">
-      <c r="C6" s="270" t="s">
-        <v>571</v>
-      </c>
-      <c r="D6" s="272">
-        <v>8</v>
-      </c>
-      <c r="E6" s="272">
-        <v>0</v>
-      </c>
-      <c r="F6" s="272">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="20">
-      <c r="C7" s="270" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="272">
-        <v>16</v>
-      </c>
-      <c r="E7" s="272">
-        <v>0</v>
-      </c>
-      <c r="F7" s="272">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="21">
-      <c r="C8" s="270" t="s">
-        <v>573</v>
-      </c>
-      <c r="D8" s="272">
-        <v>32</v>
-      </c>
-      <c r="E8" s="272">
-        <v>0</v>
-      </c>
-      <c r="F8" s="272" t="s">
+      <c r="C2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="21">
-      <c r="C9" s="270" t="s">
-        <v>574</v>
-      </c>
-      <c r="D9" s="272">
-        <v>64</v>
-      </c>
-      <c r="E9" s="272">
-        <v>0</v>
-      </c>
-      <c r="F9" s="272" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
+    <row r="12" spans="1:6">
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
     </row>
     <row r="20" spans="5:6" ht="19">
-      <c r="F20" s="270"/>
-    </row>
-    <row r="21" spans="5:6" ht="20">
-      <c r="F21" s="270"/>
-    </row>
-    <row r="22" spans="5:6" ht="20">
-      <c r="F22" s="270"/>
+      <c r="F20" s="268"/>
+    </row>
+    <row r="21" spans="5:6" ht="19">
+      <c r="F21" s="268"/>
+    </row>
+    <row r="22" spans="5:6" ht="19">
+      <c r="F22" s="268"/>
     </row>
     <row r="23" spans="5:6" ht="19">
-      <c r="E23" s="268"/>
-      <c r="F23" s="270"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="268"/>
     </row>
     <row r="24" spans="5:6" ht="19">
-      <c r="F24" s="270"/>
+      <c r="F24" s="268"/>
     </row>
     <row r="25" spans="5:6" ht="19">
-      <c r="F25" s="270"/>
+      <c r="F25" s="268"/>
     </row>
     <row r="26" spans="5:6">
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="5:6" ht="19">
-      <c r="F27" s="270"/>
+      <c r="F27" s="268"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18112,7 +17967,7 @@
       <c r="H6" s="78"/>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="1:70" ht="19" thickBot="1">
+    <row r="7" spans="1:70" ht="20" thickBot="1">
       <c r="Z7" s="119"/>
       <c r="AA7" s="119"/>
       <c r="AB7" s="119"/>
@@ -18796,7 +18651,7 @@
       <c r="H56" s="78"/>
       <c r="I56" s="78"/>
     </row>
-    <row r="57" spans="3:70" ht="19" thickBot="1">
+    <row r="57" spans="3:70" ht="20" thickBot="1">
       <c r="Z57" s="119"/>
       <c r="AA57" s="119"/>
       <c r="AB57" s="119"/>

--- a/tech/android/Android.xlsx
+++ b/tech/android/Android.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/tech/android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80DF411-1EF2-164A-BA95-86B6B76FA4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B1D73-C5C0-AD47-8534-690C3AF3DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" firstSheet="11" activeTab="22" xr2:uid="{28B047E5-106B-734D-9946-941985B8FCF0}"/>
   </bookViews>
@@ -16515,7 +16515,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/tech/android/Android.xlsx
+++ b/tech/android/Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/tech/android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B1D73-C5C0-AD47-8534-690C3AF3DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668B726-0B53-6B4E-89BF-7E33F3B46A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" firstSheet="11" activeTab="22" xr2:uid="{28B047E5-106B-734D-9946-941985B8FCF0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" firstSheet="5" activeTab="7" xr2:uid="{28B047E5-106B-734D-9946-941985B8FCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="571">
   <si>
     <t>角</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2351,6 +2351,9 @@
   </si>
   <si>
     <t>Kotlin support</t>
+  </si>
+  <si>
+    <t>以父控件的左上角为原点（0，0）来设置空间的位置。</t>
   </si>
 </sst>
 </file>
@@ -9965,6 +9968,67 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5049DFB-5BB3-F471-4C7C-5A35F01BBE1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6388100" y="39357300"/>
+          <a:ext cx="6845300" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13228,7 +13292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDFE4B9-AD98-184C-8C8B-7E44FCE2C154}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -16514,7 +16578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE55F732-FA1B-D242-804E-61E86762F3BC}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -17930,7 +17994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2296227-AA75-E647-92A2-9C609A91D3BA}">
   <dimension ref="A1:BR279"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A191" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AR204" sqref="AR204"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2" defaultRowHeight="15"/>
   <cols>
@@ -19547,13 +19613,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="3:43" ht="26">
+    <row r="194" spans="3:44" ht="26">
       <c r="C194" s="84" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="3:43" ht="16" thickBot="1"/>
-    <row r="196" spans="3:43" ht="16" thickBot="1">
+    <row r="195" spans="3:44" ht="16" thickBot="1"/>
+    <row r="196" spans="3:44" ht="16" thickBot="1">
       <c r="F196" s="118"/>
       <c r="G196" s="117"/>
       <c r="H196" s="117"/>
@@ -19577,7 +19643,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="197" spans="3:43">
+    <row r="197" spans="3:44">
       <c r="F197" s="89"/>
       <c r="G197" s="78"/>
       <c r="H197" s="78"/>
@@ -19586,8 +19652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="198" spans="3:43" ht="16" thickBot="1">
-      <c r="F198" s="85"/>
+    <row r="198" spans="3:44" ht="16" thickBot="1">
       <c r="G198" s="72"/>
       <c r="H198" s="72"/>
       <c r="I198" s="72"/>
@@ -19610,8 +19675,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="3:43">
-      <c r="F199" s="99"/>
+    <row r="199" spans="3:44" ht="16" thickBot="1">
+      <c r="F199" s="85"/>
       <c r="G199" s="96"/>
       <c r="H199" s="96"/>
       <c r="I199" s="96"/>
@@ -19634,14 +19699,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="200" spans="3:43" ht="16" thickBot="1">
+    <row r="200" spans="3:44" ht="16" thickBot="1">
       <c r="F200" s="89"/>
       <c r="X200" s="74"/>
       <c r="AQ200" s="69" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="3:43">
+    <row r="201" spans="3:44">
       <c r="F201" s="89"/>
       <c r="H201" s="99"/>
       <c r="I201" s="96"/>
@@ -19663,7 +19728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="202" spans="3:43">
+    <row r="202" spans="3:44">
       <c r="F202" s="89"/>
       <c r="H202" s="89"/>
       <c r="P202" s="113"/>
@@ -19674,7 +19739,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="3:43">
+    <row r="203" spans="3:44">
       <c r="F203" s="89"/>
       <c r="H203" s="89"/>
       <c r="P203" s="113"/>
@@ -19684,8 +19749,11 @@
       <c r="T203" s="109"/>
       <c r="V203" s="74"/>
       <c r="X203" s="74"/>
-    </row>
-    <row r="204" spans="3:43">
+      <c r="AR203" s="69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="204" spans="3:44">
       <c r="F204" s="89"/>
       <c r="H204" s="89"/>
       <c r="P204" s="113"/>
@@ -19693,7 +19761,7 @@
       <c r="V204" s="74"/>
       <c r="X204" s="74"/>
     </row>
-    <row r="205" spans="3:43">
+    <row r="205" spans="3:44">
       <c r="F205" s="89"/>
       <c r="H205" s="89"/>
       <c r="P205" s="113"/>
@@ -19701,7 +19769,7 @@
       <c r="V205" s="74"/>
       <c r="X205" s="74"/>
     </row>
-    <row r="206" spans="3:43">
+    <row r="206" spans="3:44" ht="18">
       <c r="F206" s="89"/>
       <c r="H206" s="89"/>
       <c r="L206" s="110"/>
@@ -19715,8 +19783,9 @@
       <c r="T206" s="109"/>
       <c r="V206" s="74"/>
       <c r="X206" s="74"/>
-    </row>
-    <row r="207" spans="3:43">
+      <c r="AD206"/>
+    </row>
+    <row r="207" spans="3:44">
       <c r="F207" s="89"/>
       <c r="H207" s="112"/>
       <c r="I207" s="111"/>
@@ -19739,7 +19808,7 @@
       <c r="V207" s="74"/>
       <c r="X207" s="74"/>
     </row>
-    <row r="208" spans="3:43">
+    <row r="208" spans="3:44">
       <c r="F208" s="89"/>
       <c r="H208" s="89"/>
       <c r="I208" s="69" t="s">
